--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_22_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_22_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1219183.212002593</v>
+        <v>1197905.493739079</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673263</v>
+        <v>4171427.15767326</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9709193.658763113</v>
+        <v>9709193.658763111</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>43.98786165864723</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>153.807238032413</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663199</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,16 +788,16 @@
         <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>12.06645622949286</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>77.97021545617278</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,16 +831,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>116.6889117148677</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>138.1378369109441</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>146.7912897403685</v>
       </c>
       <c r="G5" t="n">
         <v>411.9846159221721</v>
       </c>
       <c r="H5" t="n">
-        <v>305.4930893518355</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>82.55400685770235</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0802031803995</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>142.0950339471813</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -983,19 +983,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>105.601161444858</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.568165595806</v>
       </c>
       <c r="H6" t="n">
-        <v>95.08928567761473</v>
+        <v>95.08928567761471</v>
       </c>
       <c r="I6" t="n">
-        <v>28.2715898508603</v>
+        <v>28.27158985086025</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>138.7067944022647</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8245826357508</v>
+        <v>31.85008003828585</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1056,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.5025842422711</v>
@@ -1074,7 +1074,7 @@
         <v>148.9939868380619</v>
       </c>
       <c r="I7" t="n">
-        <v>110.6903745240871</v>
+        <v>110.690374524087</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>110.3697346074946</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>198.0779304212289</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>221.5860830227523</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>24.2848092836481</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>165.1859059008794</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>349.9426514783314</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>182.9377227717322</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>67.22331801800679</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>130.5021585704153</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>12.17971300739653</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>168.1158122680967</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1548,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>54.86718477556016</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>238.6591887249599</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>270.4333233586307</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>111.9187566128687</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>105.1018445532437</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>342.0652304784899</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1900,10 +1900,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>79.76470074482921</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>129.290475485516</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>152.3040369905258</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>329.7760087079232</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>78.86438712404153</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>21.82802799868892</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.74310329855286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>12.27673055432736</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>92.4209234259892</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>59.35991151980221</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>140.8206898353891</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>91.069678599626</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>175.2420117460547</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>19.49905836424245</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>152.6586601346115</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2800,16 +2800,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>200.8052136229454</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>149.5553587855457</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2967,10 +2967,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>54.57119686007933</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>169.644780075416</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3037,16 +3037,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>126.7498226612781</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>254.3657990176312</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>73.98454765968205</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>140.5401046134635</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>191.3001589974271</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>58.9280504799215</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>17.25588147840211</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>141.4201311755211</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.6076185830471</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>119.3517065765369</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.8536160993992</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3681,7 +3681,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>80.00124118081825</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>74.32262784155991</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3751,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>328.371230309406</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>94.87954332650989</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>203.4068132192031</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3985,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>205.5398079419987</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>240.2648719523401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4152,10 +4152,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.89928445781505</v>
+        <v>114.1627038799787</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>359.7826784871772</v>
+        <v>388.8228542207804</v>
       </c>
       <c r="C2" t="n">
-        <v>359.7826784871772</v>
+        <v>344.3906707271973</v>
       </c>
       <c r="D2" t="n">
-        <v>359.7826784871772</v>
+        <v>344.3906707271973</v>
       </c>
       <c r="E2" t="n">
-        <v>359.7826784871772</v>
+        <v>344.3906707271973</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897903</v>
+        <v>154.9708857107125</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058996</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201467</v>
+        <v>738.6222485201471</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201467</v>
+        <v>578.2426392372652</v>
       </c>
       <c r="T2" t="n">
-        <v>549.202463503662</v>
+        <v>388.8228542207804</v>
       </c>
       <c r="U2" t="n">
-        <v>549.202463503662</v>
+        <v>388.8228542207804</v>
       </c>
       <c r="V2" t="n">
-        <v>549.202463503662</v>
+        <v>388.8228542207804</v>
       </c>
       <c r="W2" t="n">
-        <v>549.202463503662</v>
+        <v>388.8228542207804</v>
       </c>
       <c r="X2" t="n">
-        <v>359.7826784871772</v>
+        <v>388.8228542207804</v>
       </c>
       <c r="Y2" t="n">
-        <v>359.7826784871772</v>
+        <v>388.8228542207804</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>201.8127551766207</v>
+        <v>644.1614988942544</v>
       </c>
       <c r="C3" t="n">
-        <v>201.8127551766207</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="D3" t="n">
-        <v>201.8127551766207</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="E3" t="n">
-        <v>201.8127551766207</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8127551766207</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476346</v>
+        <v>649.2101578476351</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843275</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="S3" t="n">
-        <v>571.6362168389238</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="T3" t="n">
-        <v>559.4478772131735</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="U3" t="n">
-        <v>559.4478772131735</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="V3" t="n">
-        <v>370.0280921966887</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="W3" t="n">
-        <v>370.0280921966887</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="X3" t="n">
-        <v>370.0280921966887</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="Y3" t="n">
-        <v>370.0280921966887</v>
+        <v>644.1614988942544</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>746.7254979846272</v>
+        <v>610.5691800683666</v>
       </c>
       <c r="C4" t="n">
-        <v>577.7893150567203</v>
+        <v>610.5691800683666</v>
       </c>
       <c r="D4" t="n">
-        <v>427.6726756443845</v>
+        <v>460.4525406560308</v>
       </c>
       <c r="E4" t="n">
-        <v>279.7595820619914</v>
+        <v>312.5394470736377</v>
       </c>
       <c r="F4" t="n">
-        <v>132.8696345640811</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830973</v>
+        <v>465.2530182692152</v>
       </c>
       <c r="N4" t="n">
-        <v>559.190287677754</v>
+        <v>488.6815517114714</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143042</v>
+        <v>634.372383960802</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V4" t="n">
-        <v>746.7254979846272</v>
+        <v>610.5691800683666</v>
       </c>
       <c r="W4" t="n">
-        <v>746.7254979846272</v>
+        <v>610.5691800683666</v>
       </c>
       <c r="X4" t="n">
-        <v>746.7254979846272</v>
+        <v>610.5691800683666</v>
       </c>
       <c r="Y4" t="n">
-        <v>746.7254979846272</v>
+        <v>610.5691800683666</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1562.235690513633</v>
+        <v>688.5445707482418</v>
       </c>
       <c r="C5" t="n">
-        <v>1562.235690513633</v>
+        <v>688.5445707482418</v>
       </c>
       <c r="D5" t="n">
-        <v>1562.235690513633</v>
+        <v>688.5445707482418</v>
       </c>
       <c r="E5" t="n">
-        <v>1176.447437915389</v>
+        <v>688.5445707482418</v>
       </c>
       <c r="F5" t="n">
-        <v>765.4615331257817</v>
+        <v>540.2705407074654</v>
       </c>
       <c r="G5" t="n">
-        <v>349.315456436719</v>
+        <v>124.1244640184027</v>
       </c>
       <c r="H5" t="n">
-        <v>40.73657830355178</v>
+        <v>124.1244640184027</v>
       </c>
       <c r="I5" t="n">
-        <v>40.73657830355178</v>
+        <v>40.73657830355184</v>
       </c>
       <c r="J5" t="n">
-        <v>140.3063411473624</v>
+        <v>140.3063411473629</v>
       </c>
       <c r="K5" t="n">
-        <v>340.2741230978817</v>
+        <v>340.2741230978825</v>
       </c>
       <c r="L5" t="n">
-        <v>625.2536008262773</v>
+        <v>625.2536008262787</v>
       </c>
       <c r="M5" t="n">
-        <v>974.0176169100262</v>
+        <v>974.0176169100278</v>
       </c>
       <c r="N5" t="n">
-        <v>1333.038807774396</v>
+        <v>1333.038807774398</v>
       </c>
       <c r="O5" t="n">
-        <v>1658.717076417796</v>
+        <v>1658.717076417798</v>
       </c>
       <c r="P5" t="n">
-        <v>1902.174943012939</v>
+        <v>1902.174943012942</v>
       </c>
       <c r="Q5" t="n">
-        <v>2036.828915177589</v>
+        <v>2036.828915177592</v>
       </c>
       <c r="R5" t="n">
-        <v>2036.828915177589</v>
+        <v>2036.828915177592</v>
       </c>
       <c r="S5" t="n">
-        <v>2036.828915177589</v>
+        <v>2036.828915177592</v>
       </c>
       <c r="T5" t="n">
-        <v>2036.828915177589</v>
+        <v>2036.828915177592</v>
       </c>
       <c r="U5" t="n">
-        <v>2036.828915177589</v>
+        <v>1783.212548328704</v>
       </c>
       <c r="V5" t="n">
-        <v>1705.766027834019</v>
+        <v>1452.149660985133</v>
       </c>
       <c r="W5" t="n">
-        <v>1562.235690513633</v>
+        <v>1452.149660985133</v>
       </c>
       <c r="X5" t="n">
-        <v>1562.235690513633</v>
+        <v>1078.683902724053</v>
       </c>
       <c r="Y5" t="n">
-        <v>1562.235690513633</v>
+        <v>688.5445707482418</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>595.3988020674785</v>
+        <v>931.4405162086229</v>
       </c>
       <c r="C6" t="n">
-        <v>420.9457727863515</v>
+        <v>756.9874869274959</v>
       </c>
       <c r="D6" t="n">
-        <v>272.0113631251003</v>
+        <v>608.0530772662446</v>
       </c>
       <c r="E6" t="n">
-        <v>165.3435232818094</v>
+        <v>448.815622260789</v>
       </c>
       <c r="F6" t="n">
-        <v>165.3435232818094</v>
+        <v>302.281064287674</v>
       </c>
       <c r="G6" t="n">
         <v>165.3435232818094</v>
       </c>
       <c r="H6" t="n">
-        <v>69.29373976906724</v>
+        <v>69.29373976906726</v>
       </c>
       <c r="I6" t="n">
-        <v>40.73657830355178</v>
+        <v>40.73657830355184</v>
       </c>
       <c r="J6" t="n">
-        <v>81.22179997516972</v>
+        <v>206.0519249621747</v>
       </c>
       <c r="K6" t="n">
-        <v>386.9122973431471</v>
+        <v>376.9432986792718</v>
       </c>
       <c r="L6" t="n">
-        <v>631.3657927247709</v>
+        <v>621.396794060896</v>
       </c>
       <c r="M6" t="n">
-        <v>935.9883598809063</v>
+        <v>926.0193612170317</v>
       </c>
       <c r="N6" t="n">
-        <v>1263.082024872674</v>
+        <v>1253.1130262088</v>
       </c>
       <c r="O6" t="n">
-        <v>1540.089030207015</v>
+        <v>1530.120031543142</v>
       </c>
       <c r="P6" t="n">
-        <v>1743.078507113526</v>
+        <v>1733.109508449652</v>
       </c>
       <c r="Q6" t="n">
-        <v>2036.828915177589</v>
+        <v>2026.859916513716</v>
       </c>
       <c r="R6" t="n">
-        <v>2036.828915177589</v>
+        <v>2036.828915177592</v>
       </c>
       <c r="S6" t="n">
-        <v>1896.721042043989</v>
+        <v>2036.828915177592</v>
       </c>
       <c r="T6" t="n">
-        <v>1896.721042043989</v>
+        <v>2036.828915177592</v>
       </c>
       <c r="U6" t="n">
-        <v>1668.615403017978</v>
+        <v>2004.657117159122</v>
       </c>
       <c r="V6" t="n">
-        <v>1433.463294786235</v>
+        <v>1769.505008927379</v>
       </c>
       <c r="W6" t="n">
-        <v>1179.225938058033</v>
+        <v>1515.267652199178</v>
       </c>
       <c r="X6" t="n">
-        <v>971.3744378525005</v>
+        <v>1307.416151993645</v>
       </c>
       <c r="Y6" t="n">
-        <v>763.6141390875466</v>
+        <v>1099.655853228691</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>471.2284425504407</v>
+        <v>1085.084305970987</v>
       </c>
       <c r="C7" t="n">
-        <v>471.2284425504407</v>
+        <v>916.14812304308</v>
       </c>
       <c r="D7" t="n">
-        <v>471.2284425504407</v>
+        <v>766.0314836307442</v>
       </c>
       <c r="E7" t="n">
-        <v>471.2284425504407</v>
+        <v>618.1183900483511</v>
       </c>
       <c r="F7" t="n">
         <v>471.2284425504407</v>
       </c>
       <c r="G7" t="n">
-        <v>303.0440140228941</v>
+        <v>303.0440140228942</v>
       </c>
       <c r="H7" t="n">
         <v>152.5450374187913</v>
       </c>
       <c r="I7" t="n">
-        <v>40.73657830355178</v>
+        <v>40.73657830355184</v>
       </c>
       <c r="J7" t="n">
-        <v>52.4882293553697</v>
+        <v>52.48822935536987</v>
       </c>
       <c r="K7" t="n">
-        <v>201.6366387116521</v>
+        <v>201.6366387116524</v>
       </c>
       <c r="L7" t="n">
-        <v>448.0216872905643</v>
+        <v>448.0216872905648</v>
       </c>
       <c r="M7" t="n">
-        <v>718.1892983786033</v>
+        <v>718.189298378604</v>
       </c>
       <c r="N7" t="n">
-        <v>987.367543951124</v>
+        <v>987.3675439511248</v>
       </c>
       <c r="O7" t="n">
-        <v>1219.980925984397</v>
+        <v>1219.980925984398</v>
       </c>
       <c r="P7" t="n">
-        <v>1395.501177288489</v>
+        <v>1395.50117728849</v>
       </c>
       <c r="Q7" t="n">
-        <v>1433.587221206154</v>
+        <v>1433.587221206155</v>
       </c>
       <c r="R7" t="n">
-        <v>1322.102640794543</v>
+        <v>1433.587221206155</v>
       </c>
       <c r="S7" t="n">
-        <v>1122.023923197342</v>
+        <v>1433.587221206155</v>
       </c>
       <c r="T7" t="n">
-        <v>898.1995969117339</v>
+        <v>1433.587221206155</v>
       </c>
       <c r="U7" t="n">
-        <v>873.6694865242106</v>
+        <v>1433.587221206155</v>
       </c>
       <c r="V7" t="n">
-        <v>873.6694865242106</v>
+        <v>1433.587221206155</v>
       </c>
       <c r="W7" t="n">
-        <v>873.6694865242106</v>
+        <v>1433.587221206155</v>
       </c>
       <c r="X7" t="n">
-        <v>873.6694865242106</v>
+        <v>1433.587221206155</v>
       </c>
       <c r="Y7" t="n">
-        <v>652.8769073806804</v>
+        <v>1266.732770801226</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.847660535551</v>
+        <v>2175.739488336033</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.370234799863</v>
+        <v>1806.776971395622</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>1448.511272788871</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>1062.723020190627</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>651.7371154010195</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>236.0323651253084</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4822,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796631</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.313418796631</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1975.313418796631</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>1601.847660535551</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y8" t="n">
-        <v>1601.847660535551</v>
+        <v>2562.339328400155</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182533</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>143.6627691908473</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143502</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458221</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710447</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>474.7770143030104</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C10" t="n">
-        <v>305.8408313751036</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>305.8408313751036</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>305.8408313751036</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
         <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4971,7 +4971,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234359</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="U10" t="n">
-        <v>1150.699034738197</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="V10" t="n">
-        <v>896.0145465323097</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="W10" t="n">
-        <v>606.5973764953492</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="X10" t="n">
-        <v>474.7770143030104</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="Y10" t="n">
-        <v>474.7770143030104</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2005.586939522201</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.624422581789</v>
+        <v>1535.524858594926</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>1177.259159988176</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>791.4709073899314</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5062,31 +5062,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>3155.791869823214</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X11" t="n">
-        <v>2782.326111562134</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y11" t="n">
-        <v>2392.186779586323</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>562.0806046698464</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>3084.535934008201</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V14" t="n">
-        <v>3084.535934008201</v>
+        <v>2736.172432430963</v>
       </c>
       <c r="W14" t="n">
-        <v>2731.767278738087</v>
+        <v>2383.403777160848</v>
       </c>
       <c r="X14" t="n">
-        <v>2731.767278738087</v>
+        <v>2009.938018899768</v>
       </c>
       <c r="Y14" t="n">
-        <v>2731.767278738087</v>
+        <v>1619.798686923957</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
         <v>1212.42807043813</v>
@@ -5378,31 +5378,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>590.8070661251691</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C16" t="n">
-        <v>590.8070661251691</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D16" t="n">
-        <v>590.8070661251691</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E16" t="n">
-        <v>590.8070661251691</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5463,25 +5463,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1539.614727326137</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X16" t="n">
-        <v>590.8070661251691</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y16" t="n">
-        <v>590.8070661251691</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1617.939223126803</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="C17" t="n">
-        <v>1617.939223126803</v>
+        <v>1137.401303008949</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1137.401303008949</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>751.613050410705</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>751.613050410705</v>
       </c>
       <c r="G17" t="n">
         <v>406.0926155839475</v>
@@ -5512,7 +5512,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912087</v>
@@ -5536,7 +5536,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5545,22 +5545,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180639</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.50962791956</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y17" t="n">
-        <v>1617.939223126803</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
         <v>618.1564155387305</v>
@@ -5582,25 +5582,25 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5612,16 +5612,16 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>798.5065461617548</v>
+        <v>550.0410834832817</v>
       </c>
       <c r="C19" t="n">
-        <v>629.570363233848</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D19" t="n">
-        <v>479.4537238215122</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E19" t="n">
-        <v>331.5406302391191</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1837.464090846021</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1837.464090846021</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V19" t="n">
-        <v>1582.779602640134</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W19" t="n">
-        <v>1428.937141033542</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X19" t="n">
-        <v>1200.947590135525</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y19" t="n">
-        <v>980.1550109919946</v>
+        <v>680.6375233676413</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2345.167438673965</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C20" t="n">
-        <v>1976.204921733553</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5785,19 +5785,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U20" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V20" t="n">
-        <v>2678.274518176918</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W20" t="n">
-        <v>2678.274518176918</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X20" t="n">
-        <v>2678.274518176918</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.274518176918</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="21">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1731.085250062423</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C22" t="n">
-        <v>1562.149067134517</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D22" t="n">
-        <v>1562.149067134517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E22" t="n">
-        <v>1562.149067134517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>1562.149067134517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G22" t="n">
-        <v>1562.149067134517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>1562.149067134517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.775364366699</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>3044.089480193526</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T22" t="n">
-        <v>2822.322864763052</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U22" t="n">
-        <v>2533.219997888695</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V22" t="n">
-        <v>2278.535509682808</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W22" t="n">
-        <v>1989.118339645848</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X22" t="n">
-        <v>1761.12878874783</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="Y22" t="n">
-        <v>1731.085250062423</v>
+        <v>554.5033994003252</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>921.7704558796265</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C23" t="n">
-        <v>909.3697179459625</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D23" t="n">
-        <v>909.3697179459625</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
-        <v>523.5814653477182</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218343</v>
@@ -5992,13 +5992,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060172</v>
@@ -6019,22 +6019,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520489</v>
+        <v>3121.960685029207</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794325</v>
+        <v>3121.960685029207</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450754</v>
+        <v>3121.960685029207</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.97538618064</v>
+        <v>2769.192029759092</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.50962791956</v>
+        <v>2395.726271498012</v>
       </c>
       <c r="Y23" t="n">
-        <v>1308.370295943748</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="24">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1708.366253916659</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C25" t="n">
-        <v>1708.366253916659</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D25" t="n">
-        <v>1708.366253916659</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E25" t="n">
-        <v>1708.366253916659</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
-        <v>1708.366253916659</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G25" t="n">
-        <v>1708.366253916659</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>1562.149067134517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>3235.775364366699</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S25" t="n">
-        <v>3044.089480193526</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T25" t="n">
-        <v>2822.322864763052</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U25" t="n">
-        <v>2533.219997888695</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V25" t="n">
-        <v>2278.535509682808</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W25" t="n">
-        <v>1989.118339645848</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X25" t="n">
-        <v>1929.158833060189</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="Y25" t="n">
-        <v>1708.366253916659</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1477.112184968822</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C26" t="n">
-        <v>1108.149668028411</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D26" t="n">
-        <v>749.8839694216604</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E26" t="n">
-        <v>364.0957168234162</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F26" t="n">
         <v>364.0957168234162</v>
@@ -6220,58 +6220,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3233.616247266114</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3233.616247266114</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>2980.08577053995</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V26" t="n">
-        <v>2980.08577053995</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W26" t="n">
-        <v>2627.317115269836</v>
+        <v>3038.303020059443</v>
       </c>
       <c r="X26" t="n">
-        <v>2253.851357008756</v>
+        <v>2664.837261798364</v>
       </c>
       <c r="Y26" t="n">
-        <v>1863.712025032944</v>
+        <v>2274.697929822552</v>
       </c>
     </row>
     <row r="27">
@@ -6296,16 +6296,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2412.29529533057</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C28" t="n">
-        <v>2243.359112402663</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D28" t="n">
-        <v>2093.242472990328</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E28" t="n">
-        <v>1945.329379407935</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
-        <v>1798.439431910024</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G28" t="n">
-        <v>1630.736595284743</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>1484.519408502601</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>3103.839206178697</v>
+        <v>1773.093881285855</v>
       </c>
       <c r="U28" t="n">
-        <v>2814.73633930434</v>
+        <v>1483.991014411499</v>
       </c>
       <c r="V28" t="n">
-        <v>2814.73633930434</v>
+        <v>1229.306526205612</v>
       </c>
       <c r="W28" t="n">
-        <v>2814.73633930434</v>
+        <v>939.8893561686509</v>
       </c>
       <c r="X28" t="n">
-        <v>2814.73633930434</v>
+        <v>711.8998052706336</v>
       </c>
       <c r="Y28" t="n">
-        <v>2593.94376016081</v>
+        <v>711.8998052706336</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1477.112184968822</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C29" t="n">
-        <v>1108.149668028411</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D29" t="n">
-        <v>749.8839694216604</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E29" t="n">
-        <v>364.0957168234162</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
@@ -6484,7 +6484,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
@@ -6496,19 +6496,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>3072.075344883008</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V29" t="n">
-        <v>2741.012457539437</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W29" t="n">
-        <v>2388.243802269323</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X29" t="n">
-        <v>2014.778044008243</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y29" t="n">
-        <v>1863.712025032944</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="30">
@@ -6533,16 +6533,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.613680441807</v>
+        <v>753.0765981364621</v>
       </c>
       <c r="C31" t="n">
-        <v>922.6774975139006</v>
+        <v>584.1404152085552</v>
       </c>
       <c r="D31" t="n">
-        <v>772.5608581015648</v>
+        <v>584.1404152085552</v>
       </c>
       <c r="E31" t="n">
-        <v>624.6477645191717</v>
+        <v>436.2273216261621</v>
       </c>
       <c r="F31" t="n">
-        <v>477.7578170212613</v>
+        <v>289.3373741282517</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>121.6345375029706</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6654,19 +6654,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U31" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V31" t="n">
-        <v>1672.610059882606</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W31" t="n">
-        <v>1672.610059882606</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="X31" t="n">
-        <v>1444.620508984588</v>
+        <v>1155.517642110232</v>
       </c>
       <c r="Y31" t="n">
-        <v>1273.262145272047</v>
+        <v>934.7250629667018</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>921.7704558796265</v>
+        <v>1734.047335491682</v>
       </c>
       <c r="C32" t="n">
-        <v>552.8079389392149</v>
+        <v>1365.084818551271</v>
       </c>
       <c r="D32" t="n">
-        <v>194.5422403324644</v>
+        <v>1006.81911994452</v>
       </c>
       <c r="E32" t="n">
-        <v>66.51211643218343</v>
+        <v>621.030867346276</v>
       </c>
       <c r="F32" t="n">
-        <v>66.51211643218343</v>
+        <v>621.030867346276</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
         <v>66.51211643218343</v>
@@ -6700,22 +6700,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
         <v>3018.302393296687</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.97538618064</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.50962791956</v>
+        <v>2510.786507531616</v>
       </c>
       <c r="Y32" t="n">
-        <v>1308.370295943748</v>
+        <v>2120.647175555804</v>
       </c>
     </row>
     <row r="33">
@@ -6782,10 +6782,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2395.72063735749</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="C34" t="n">
-        <v>2320.988771034579</v>
+        <v>505.4784049721907</v>
       </c>
       <c r="D34" t="n">
-        <v>2170.872131622243</v>
+        <v>355.3617655598549</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.95903803985</v>
+        <v>355.3617655598549</v>
       </c>
       <c r="F34" t="n">
-        <v>1876.06909054194</v>
+        <v>208.4718180619446</v>
       </c>
       <c r="G34" t="n">
-        <v>1708.366253916659</v>
+        <v>208.4718180619446</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>3133.919937435998</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>3133.919937435998</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U34" t="n">
-        <v>3133.919937435998</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V34" t="n">
-        <v>3133.919937435998</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W34" t="n">
-        <v>2844.502767399037</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X34" t="n">
-        <v>2616.51321650102</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y34" t="n">
-        <v>2395.72063735749</v>
+        <v>674.4145879000976</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1712.341567565139</v>
+        <v>2065.110222835253</v>
       </c>
       <c r="C35" t="n">
-        <v>1343.379050624727</v>
+        <v>1696.147705894841</v>
       </c>
       <c r="D35" t="n">
-        <v>985.1133520179767</v>
+        <v>1337.882007288091</v>
       </c>
       <c r="E35" t="n">
-        <v>599.3250994197324</v>
+        <v>952.0937546898465</v>
       </c>
       <c r="F35" t="n">
-        <v>599.3250994197324</v>
+        <v>541.107849900239</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>126.0353997452355</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218343</v>
@@ -6976,13 +6976,13 @@
         <v>3215.315153136266</v>
       </c>
       <c r="W35" t="n">
-        <v>2862.546497866152</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X35" t="n">
-        <v>2489.080739605072</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y35" t="n">
-        <v>2098.941407629261</v>
+        <v>2451.710062899375</v>
       </c>
     </row>
     <row r="36">
@@ -7019,10 +7019,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1091.613680441807</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C37" t="n">
-        <v>922.6774975139006</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D37" t="n">
-        <v>772.5608581015648</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E37" t="n">
-        <v>624.6477645191717</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218343</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1705.527932658019</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>1705.527932658019</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W37" t="n">
-        <v>1416.110762621058</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X37" t="n">
-        <v>1416.110762621058</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1273.262145272047</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1204.726236768953</v>
+        <v>1767.87852028569</v>
       </c>
       <c r="C38" t="n">
-        <v>835.7637198285415</v>
+        <v>1398.916003345278</v>
       </c>
       <c r="D38" t="n">
-        <v>477.498021221791</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>477.498021221791</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
         <v>66.51211643218343</v>
@@ -7174,10 +7174,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.97538618064</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.50962791956</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943748</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218343</v>
@@ -7365,19 +7365,19 @@
         <v>1705.527932658019</v>
       </c>
       <c r="U40" t="n">
-        <v>1416.425065783662</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V40" t="n">
-        <v>1416.425065783662</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W40" t="n">
-        <v>1416.425065783662</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X40" t="n">
-        <v>1188.435514885645</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y40" t="n">
-        <v>1188.435514885645</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2051.278283189674</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="C41" t="n">
-        <v>1976.204921733553</v>
+        <v>1439.837779452053</v>
       </c>
       <c r="D41" t="n">
-        <v>1617.939223126803</v>
+        <v>1081.572080845303</v>
       </c>
       <c r="E41" t="n">
-        <v>1232.150970528558</v>
+        <v>695.7838282470586</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389509</v>
+        <v>695.7838282470586</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218343</v>
@@ -7438,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W41" t="n">
-        <v>2424.744041450754</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X41" t="n">
-        <v>2051.278283189674</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y41" t="n">
-        <v>2051.278283189674</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>936.5735814686084</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.51211643218343</v>
+        <v>498.9890585374015</v>
       </c>
       <c r="C43" t="n">
-        <v>66.51211643218343</v>
+        <v>330.0528756094947</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
         <v>66.51211643218343</v>
@@ -7599,22 +7599,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1530.147236421175</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1241.044369546818</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>986.3598813409312</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W43" t="n">
-        <v>696.9427113039706</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X43" t="n">
-        <v>468.9531604059532</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y43" t="n">
-        <v>248.1605812624231</v>
+        <v>680.6375233676413</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1661.795585684488</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C44" t="n">
-        <v>1292.833068744076</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D44" t="n">
-        <v>934.5673701373257</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
         <v>66.5121164321834</v>
@@ -7681,19 +7681,19 @@
         <v>3215.315153136265</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410101</v>
+        <v>3007.699185518085</v>
       </c>
       <c r="V44" t="n">
-        <v>2630.721789066531</v>
+        <v>2676.636298174514</v>
       </c>
       <c r="W44" t="n">
-        <v>2277.953133796416</v>
+        <v>2676.636298174514</v>
       </c>
       <c r="X44" t="n">
-        <v>1904.487375535336</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="Y44" t="n">
-        <v>1661.795585684488</v>
+        <v>2303.170539913434</v>
       </c>
     </row>
     <row r="45">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2489.924953962484</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C46" t="n">
-        <v>2320.988771034577</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D46" t="n">
-        <v>2170.872131622242</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.959038039849</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F46" t="n">
-        <v>1876.069090541939</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G46" t="n">
-        <v>1708.366253916658</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>1562.149067134515</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T46" t="n">
-        <v>3235.775364366698</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U46" t="n">
-        <v>3235.775364366698</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V46" t="n">
-        <v>2981.090876160811</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W46" t="n">
-        <v>2691.67370612385</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X46" t="n">
-        <v>2691.67370612385</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y46" t="n">
-        <v>2671.573418792724</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
   </sheetData>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>145.8220995101052</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777598</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>7.153582300174321</v>
+        <v>7.153582300174151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>159.9393741565905</v>
+        <v>23.77864319610518</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>35.45197419124375</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>30.36925650589485</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>394.6963327343149</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>181.1251564493163</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>163.7174685765346</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>12.33598323394204</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>57.31893511150417</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>33.50229141006257</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>114.4471047229255</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,10 +23743,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>68.85649517496353</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23788,10 +23788,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>306.4732379112244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>50.5415046964213</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>134.2189613460652</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>52.95783295555742</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>275.8186544966414</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,16 +24025,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>158.0039521832484</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>188.8415500535419</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>352.9961612166802</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,13 +24259,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>111.4970467136309</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>166.3497438692349</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>77.76396351670567</v>
       </c>
     </row>
     <row r="26">
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>18.11808318854983</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>173.9989569713583</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>76.85336204559565</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>66.8902891415577</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>181.1251564493164</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24736,10 +24736,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>236.6825798705079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>90.18381805424144</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>48.93987327667881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24925,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>255.1805474109837</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>156.5559266358223</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24970,16 +24970,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>93.26227343894578</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>4.214910300857269</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>219.6215666560264</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>235.679713907399</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>128.1651665445291</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>77.16452217657371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>280.1262230804335</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>235.3313350441461</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>83.97836408253809</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>206.5217571557727</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>290.9502639294477</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>82.55049534404742</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>53.73592969170247</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>16.14213605696608</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>45.45536401690325</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.9730667037134</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>198.6853688942797</v>
+        <v>104.4219494721161</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>797712.0948633887</v>
+        <v>797712.0948633886</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>797712.0948633888</v>
+        <v>797712.0948633887</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>797712.0948633888</v>
+        <v>797712.0948633887</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>797712.0948633888</v>
+        <v>797712.0948633887</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>797712.0948633888</v>
+        <v>797712.0948633887</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>797712.0948633888</v>
+        <v>797712.0948633887</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>797712.0948633885</v>
+        <v>797712.0948633887</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
@@ -26328,22 +26328,22 @@
         <v>409196.5187651049</v>
       </c>
       <c r="G2" t="n">
+        <v>409196.518765105</v>
+      </c>
+      <c r="H2" t="n">
+        <v>409196.5187651046</v>
+      </c>
+      <c r="I2" t="n">
         <v>409196.5187651048</v>
       </c>
-      <c r="H2" t="n">
-        <v>409196.5187651049</v>
-      </c>
-      <c r="I2" t="n">
-        <v>409196.5187651049</v>
-      </c>
       <c r="J2" t="n">
-        <v>409196.5187651047</v>
+        <v>409196.5187651048</v>
       </c>
       <c r="K2" t="n">
         <v>409196.5187651048</v>
       </c>
       <c r="L2" t="n">
-        <v>409196.5187651047</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="M2" t="n">
         <v>409196.5187651048</v>
@@ -26352,10 +26352,10 @@
         <v>409196.5187651048</v>
       </c>
       <c r="O2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="P2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.518765105</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>356083.2629995302</v>
+        <v>356083.2629995311</v>
       </c>
       <c r="D3" t="n">
-        <v>133886.7361862375</v>
+        <v>133886.7361862366</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171904</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
-        <v>82790.56074253508</v>
+        <v>82790.56074253515</v>
       </c>
       <c r="L3" t="n">
-        <v>33250.48899822819</v>
+        <v>33250.48899822798</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.2657934148</v>
+        <v>47552.26579341491</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>278169.1766632064</v>
       </c>
       <c r="C4" t="n">
-        <v>183499.9814421237</v>
+        <v>183499.9814421235</v>
       </c>
       <c r="D4" t="n">
         <v>146359.3674130576</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>82580.74337893909</v>
+        <v>82580.74337893915</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-433886.8176770955</v>
+        <v>-433886.8176770954</v>
       </c>
       <c r="C6" t="n">
-        <v>-129538.9259020233</v>
+        <v>-129538.9259020241</v>
       </c>
       <c r="D6" t="n">
-        <v>119441.1858794301</v>
+        <v>119441.1858794311</v>
       </c>
       <c r="E6" t="n">
-        <v>138777.1875293434</v>
+        <v>135300.9982312822</v>
       </c>
       <c r="F6" t="n">
-        <v>320850.167346534</v>
+        <v>317373.9780484727</v>
       </c>
       <c r="G6" t="n">
-        <v>320850.1673465339</v>
+        <v>317373.9780484732</v>
       </c>
       <c r="H6" t="n">
-        <v>320850.167346534</v>
+        <v>317373.9780484727</v>
       </c>
       <c r="I6" t="n">
-        <v>320850.167346534</v>
+        <v>317373.9780484728</v>
       </c>
       <c r="J6" t="n">
-        <v>271785.2226179892</v>
+        <v>268309.0333199282</v>
       </c>
       <c r="K6" t="n">
-        <v>238059.6066039989</v>
+        <v>234583.4173059376</v>
       </c>
       <c r="L6" t="n">
-        <v>287599.6783483056</v>
+        <v>284123.489050245</v>
       </c>
       <c r="M6" t="n">
-        <v>273297.9015531191</v>
+        <v>269821.7122550579</v>
       </c>
       <c r="N6" t="n">
-        <v>320850.1673465339</v>
+        <v>317373.9780484728</v>
       </c>
       <c r="O6" t="n">
-        <v>320850.1673465339</v>
+        <v>317373.9780484729</v>
       </c>
       <c r="P6" t="n">
-        <v>320850.1673465339</v>
+        <v>317373.978048473</v>
       </c>
     </row>
   </sheetData>
@@ -26740,16 +26740,16 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>825.3827462495293</v>
+        <v>825.38274624953</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>509.2072287943973</v>
+        <v>509.2072287943981</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
@@ -26813,10 +26813,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022929</v>
@@ -26962,16 +26962,16 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>276.9128053366247</v>
+        <v>276.9128053366254</v>
       </c>
       <c r="D3" t="n">
-        <v>108.6821458680101</v>
+        <v>108.6821458680093</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.711808475759</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>321.6816416280774</v>
+        <v>321.6816416280781</v>
       </c>
       <c r="D4" t="n">
-        <v>131.3776033056418</v>
+        <v>131.3776033056407</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.816623302254</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>321.6816416280776</v>
+        <v>321.6816416280779</v>
       </c>
       <c r="L4" t="n">
-        <v>131.3776033056418</v>
+        <v>131.377603305641</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>321.6816416280774</v>
+        <v>321.6816416280781</v>
       </c>
       <c r="L4" t="n">
-        <v>131.3776033056418</v>
+        <v>131.3776033056407</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>321.2850301123603</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>253.0688077092984</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988691</v>
+        <v>25.91829388988683</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121492</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,16 +27508,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>183.3431415625084</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>127.7124803211316</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>50.31302348784648</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27596,7 +27596,7 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>113.9998064128839</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>260.0847560013429</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>305.4930893518355</v>
       </c>
       <c r="I5" t="n">
-        <v>82.55400685770245</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>208.5707722909361</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0802031803995</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>207.1459347702317</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27703,13 +27703,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>52.04391901054296</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.568165595806</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27745,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>138.7067944022646</v>
       </c>
       <c r="T6" t="n">
         <v>193.0088160174318</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>193.974502597465</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27776,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>110.3697346074945</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>198.0779304212288</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>221.5860830227523</v>
       </c>
       <c r="U7" t="n">
-        <v>261.9530348846871</v>
+        <v>286.2378441683352</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>53.3987474512154</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>15.33024029267619</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>118.0808297906732</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>153.5253779792051</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>95.20749681862182</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.31812159296293</v>
+        <v>3.318121592962932</v>
       </c>
       <c r="H5" t="n">
-        <v>33.98171276393161</v>
+        <v>33.98171276393164</v>
       </c>
       <c r="I5" t="n">
-        <v>127.9218827127035</v>
+        <v>127.9218827127036</v>
       </c>
       <c r="J5" t="n">
-        <v>281.6214225507377</v>
+        <v>281.6214225507379</v>
       </c>
       <c r="K5" t="n">
-        <v>422.0775095808586</v>
+        <v>422.0775095808589</v>
       </c>
       <c r="L5" t="n">
-        <v>523.6244732814979</v>
+        <v>523.6244732814984</v>
       </c>
       <c r="M5" t="n">
-        <v>582.6331181603524</v>
+        <v>582.6331181603529</v>
       </c>
       <c r="N5" t="n">
-        <v>592.0607311363584</v>
+        <v>592.0607311363589</v>
       </c>
       <c r="O5" t="n">
-        <v>559.0661595463332</v>
+        <v>559.0661595463337</v>
       </c>
       <c r="P5" t="n">
-        <v>477.1500327200608</v>
+        <v>477.1500327200612</v>
       </c>
       <c r="Q5" t="n">
-        <v>358.3198031720758</v>
+        <v>358.3198031720761</v>
       </c>
       <c r="R5" t="n">
-        <v>208.4319555139578</v>
+        <v>208.431955513958</v>
       </c>
       <c r="S5" t="n">
-        <v>75.61169579964283</v>
+        <v>75.61169579964289</v>
       </c>
       <c r="T5" t="n">
-        <v>14.52507727319523</v>
+        <v>14.52507727319524</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2654497274370343</v>
+        <v>0.2654497274370345</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.775351567404648</v>
+        <v>1.775351567404649</v>
       </c>
       <c r="H6" t="n">
-        <v>17.14615855888173</v>
+        <v>17.14615855888175</v>
       </c>
       <c r="I6" t="n">
-        <v>61.12504300055478</v>
+        <v>61.12504300055483</v>
       </c>
       <c r="J6" t="n">
-        <v>167.7317899713313</v>
+        <v>167.7317899713314</v>
       </c>
       <c r="K6" t="n">
-        <v>286.6803449874427</v>
+        <v>286.6803449874429</v>
       </c>
       <c r="L6" t="n">
-        <v>385.477102387575</v>
+        <v>385.4771023875754</v>
       </c>
       <c r="M6" t="n">
-        <v>449.8335967059934</v>
+        <v>449.8335967059938</v>
       </c>
       <c r="N6" t="n">
-        <v>461.7393534891589</v>
+        <v>461.7393534891593</v>
       </c>
       <c r="O6" t="n">
-        <v>422.401300337719</v>
+        <v>422.4013003377194</v>
       </c>
       <c r="P6" t="n">
-        <v>339.0142830774718</v>
+        <v>339.0142830774721</v>
       </c>
       <c r="Q6" t="n">
-        <v>226.622070253267</v>
+        <v>226.6220702532672</v>
       </c>
       <c r="R6" t="n">
-        <v>110.2275297727202</v>
+        <v>110.2275297727203</v>
       </c>
       <c r="S6" t="n">
-        <v>32.97637670157315</v>
+        <v>32.97637670157318</v>
       </c>
       <c r="T6" t="n">
-        <v>7.155912677389785</v>
+        <v>7.15591267738979</v>
       </c>
       <c r="U6" t="n">
         <v>0.1167994452239901</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.488395116187676</v>
+        <v>1.488395116187677</v>
       </c>
       <c r="H7" t="n">
-        <v>13.23318566937771</v>
+        <v>13.23318566937772</v>
       </c>
       <c r="I7" t="n">
-        <v>44.76010040317121</v>
+        <v>44.76010040317124</v>
       </c>
       <c r="J7" t="n">
-        <v>105.2295347144687</v>
+        <v>105.2295347144688</v>
       </c>
       <c r="K7" t="n">
-        <v>172.9244507716226</v>
+        <v>172.9244507716228</v>
       </c>
       <c r="L7" t="n">
-        <v>221.2837611830296</v>
+        <v>221.2837611830298</v>
       </c>
       <c r="M7" t="n">
-        <v>233.3126998947644</v>
+        <v>233.3126998947646</v>
       </c>
       <c r="N7" t="n">
-        <v>227.7650453707924</v>
+        <v>227.7650453707926</v>
       </c>
       <c r="O7" t="n">
-        <v>210.3778842407817</v>
+        <v>210.3778842407819</v>
       </c>
       <c r="P7" t="n">
-        <v>180.014623870553</v>
+        <v>180.0146238705531</v>
       </c>
       <c r="Q7" t="n">
-        <v>124.6327946836789</v>
+        <v>124.632794683679</v>
       </c>
       <c r="R7" t="n">
-        <v>66.92365676967492</v>
+        <v>66.92365676967498</v>
       </c>
       <c r="S7" t="n">
-        <v>25.93866761574339</v>
+        <v>25.93866761574341</v>
       </c>
       <c r="T7" t="n">
-        <v>6.359506405529157</v>
+        <v>6.359506405529163</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08118518815569149</v>
+        <v>0.08118518815569156</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,28 +31521,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31557,7 +31557,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31606,10 +31606,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31618,7 +31618,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32496,7 +32496,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
         <v>99.83230779806951</v>
@@ -32569,7 +32569,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
@@ -32800,7 +32800,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33043,10 +33043,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33900,7 +33900,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
         <v>769.2673490574995</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663199</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>147.1624568175057</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068212</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>100.5755180240514</v>
+        <v>100.5755180240516</v>
       </c>
       <c r="K5" t="n">
-        <v>201.987658535878</v>
+        <v>201.9876585358784</v>
       </c>
       <c r="L5" t="n">
-        <v>287.8580583115107</v>
+        <v>287.8580583115111</v>
       </c>
       <c r="M5" t="n">
-        <v>352.2868849330797</v>
+        <v>352.2868849330802</v>
       </c>
       <c r="N5" t="n">
-        <v>362.6476675397675</v>
+        <v>362.647667539768</v>
       </c>
       <c r="O5" t="n">
-        <v>328.9679481246465</v>
+        <v>328.9679481246469</v>
       </c>
       <c r="P5" t="n">
-        <v>245.9170369647913</v>
+        <v>245.9170369647916</v>
       </c>
       <c r="Q5" t="n">
-        <v>136.0141132976263</v>
+        <v>136.0141132976266</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>40.89416330466457</v>
+        <v>166.9851986450736</v>
       </c>
       <c r="K6" t="n">
-        <v>308.7782801696741</v>
+        <v>172.6175492091891</v>
       </c>
       <c r="L6" t="n">
-        <v>246.9227226077008</v>
+        <v>246.9227226077012</v>
       </c>
       <c r="M6" t="n">
-        <v>307.6995627839751</v>
+        <v>307.6995627839755</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3976414058255</v>
+        <v>330.397641405826</v>
       </c>
       <c r="O6" t="n">
-        <v>279.8050558932746</v>
+        <v>279.8050558932749</v>
       </c>
       <c r="P6" t="n">
-        <v>205.0398756631416</v>
+        <v>205.0398756631419</v>
       </c>
       <c r="Q6" t="n">
-        <v>296.7175839030946</v>
+        <v>296.7175839030948</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>10.06969562007716</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.87035459779588</v>
+        <v>11.87035459779598</v>
       </c>
       <c r="K7" t="n">
-        <v>150.6549589457398</v>
+        <v>150.6549589457399</v>
       </c>
       <c r="L7" t="n">
-        <v>248.8737864433457</v>
+        <v>248.8737864433459</v>
       </c>
       <c r="M7" t="n">
-        <v>272.896576856605</v>
+        <v>272.8965768566052</v>
       </c>
       <c r="N7" t="n">
-        <v>271.897217750021</v>
+        <v>271.8972177500211</v>
       </c>
       <c r="O7" t="n">
-        <v>234.9630121548214</v>
+        <v>234.9630121548216</v>
       </c>
       <c r="P7" t="n">
-        <v>177.2931831354465</v>
+        <v>177.2931831354466</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.47075143198454</v>
+        <v>38.47075143198464</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>93.3494773968123</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560635</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
@@ -35275,7 +35275,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35339,7 +35339,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36448,7 +36448,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_22_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_22_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1197905.493739079</v>
+        <v>1215522.943603158</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.15767326</v>
+        <v>4171427.157673263</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>43.98786165864723</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>37.11181591693514</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>77.97021545617187</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>77.97021545617278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>138.1378369109441</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>70.09870991130867</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>146.7912897403685</v>
+        <v>229.3452965980713</v>
       </c>
       <c r="G5" t="n">
         <v>411.9846159221721</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>82.55400685770235</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>95.08928567761471</v>
       </c>
       <c r="I6" t="n">
-        <v>28.27158985086025</v>
+        <v>28.27158985086024</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>138.7067944022646</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>31.85008003828585</v>
+        <v>125.9438727854472</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1059,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5025842422711</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.9939868380619</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>110.690374524087</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>48.88838479146145</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>165.1859059008794</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>68.31135823054152</v>
       </c>
       <c r="H8" t="n">
-        <v>182.9377227717322</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>67.22331801800679</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>243.1374135427318</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>280.7066282079243</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>12.17971300739653</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1545,7 +1545,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>15.42290135054921</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>54.86718477556016</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>51.86882667667126</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>270.4333233586307</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1782,7 +1782,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>41.45777050580425</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>105.1018445532437</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>127.5532942524965</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>342.0652304784899</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>129.290475485516</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>15.07437110675894</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2086,13 +2086,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>78.86438712404153</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>85.17289288835173</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21.82802799868892</v>
+        <v>59.4223484152694</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2329,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>267.3434267027881</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>92.4209234259892</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>140.8206898353891</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>196.6325606048275</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>175.2420117460547</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>7.601081015447462</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>152.6586601346115</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,13 +2800,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>200.8052136229454</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>80.86018225786262</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>54.57119686007933</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>264.6561848198657</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3037,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>254.3657990176312</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>242.3977510333388</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.5401046134635</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>68.74868616823407</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>58.9280504799215</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>62.9289261800545</v>
       </c>
     </row>
     <row r="36">
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>17.25588147840211</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>27.32239466140644</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>119.3517065765369</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>66.52591536558455</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3669,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3678,7 +3678,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>52.0785263574582</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>80.00124118081825</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3751,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>203.6248333531608</v>
       </c>
       <c r="G41" t="n">
-        <v>328.371230309406</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3903,16 +3903,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>94.87954332650989</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>285.6207440981026</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3988,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>342.4667629939366</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>205.5398079419987</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>169.6759512939613</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>114.1627038799787</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388.8228542207804</v>
+        <v>199.4030692042949</v>
       </c>
       <c r="C2" t="n">
-        <v>344.3906707271973</v>
+        <v>199.4030692042949</v>
       </c>
       <c r="D2" t="n">
-        <v>344.3906707271973</v>
+        <v>199.4030692042949</v>
       </c>
       <c r="E2" t="n">
-        <v>344.3906707271973</v>
+        <v>199.4030692042949</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107125</v>
+        <v>192.4575684550914</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>179.2274338792752</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>141.7407511348963</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678535</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058996</v>
+        <v>80.81213159059007</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079189</v>
+        <v>191.874309407919</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N2" t="n">
         <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.461172602026</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201471</v>
+        <v>738.6222485201461</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372652</v>
+        <v>578.242639237264</v>
       </c>
       <c r="T2" t="n">
-        <v>388.8228542207804</v>
+        <v>388.8228542207794</v>
       </c>
       <c r="U2" t="n">
-        <v>388.8228542207804</v>
+        <v>199.4030692042949</v>
       </c>
       <c r="V2" t="n">
-        <v>388.8228542207804</v>
+        <v>199.4030692042949</v>
       </c>
       <c r="W2" t="n">
-        <v>388.8228542207804</v>
+        <v>199.4030692042949</v>
       </c>
       <c r="X2" t="n">
-        <v>388.8228542207804</v>
+        <v>199.4030692042949</v>
       </c>
       <c r="Y2" t="n">
-        <v>388.8228542207804</v>
+        <v>199.4030692042949</v>
       </c>
     </row>
     <row r="3">
@@ -4397,64 +4397,64 @@
         <v>161.5366049464206</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024242</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546594</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476351</v>
+        <v>649.2101578476343</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017056</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843279</v>
+        <v>722.919292284327</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843279</v>
+        <v>722.919292284327</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843279</v>
+        <v>722.919292284327</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843279</v>
+        <v>722.919292284327</v>
       </c>
       <c r="V3" t="n">
-        <v>722.9192922843279</v>
+        <v>722.919292284327</v>
       </c>
       <c r="W3" t="n">
-        <v>722.9192922843279</v>
+        <v>722.919292284327</v>
       </c>
       <c r="X3" t="n">
-        <v>722.9192922843279</v>
+        <v>722.919292284327</v>
       </c>
       <c r="Y3" t="n">
-        <v>644.1614988942544</v>
+        <v>722.919292284327</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>610.5691800683666</v>
+        <v>162.9151405556987</v>
       </c>
       <c r="C4" t="n">
-        <v>610.5691800683666</v>
+        <v>162.9151405556987</v>
       </c>
       <c r="D4" t="n">
-        <v>460.4525406560308</v>
+        <v>162.9151405556987</v>
       </c>
       <c r="E4" t="n">
-        <v>312.5394470736377</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F4" t="n">
-        <v>165.6494995757273</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G4" t="n">
-        <v>165.6494995757273</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H4" t="n">
-        <v>165.6494995757273</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745584</v>
+        <v>187.8896250884405</v>
       </c>
       <c r="M4" t="n">
-        <v>465.2530182692152</v>
+        <v>373.539956383097</v>
       </c>
       <c r="N4" t="n">
-        <v>488.6815517114714</v>
+        <v>559.1902876777535</v>
       </c>
       <c r="O4" t="n">
-        <v>634.372383960802</v>
+        <v>721.9284911143036</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652798</v>
+        <v>746.7254979846265</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652798</v>
+        <v>612.5614882768584</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652798</v>
+        <v>423.1417032603738</v>
       </c>
       <c r="T4" t="n">
-        <v>750.1023486652798</v>
+        <v>423.1417032603738</v>
       </c>
       <c r="U4" t="n">
-        <v>750.1023486652798</v>
+        <v>423.1417032603738</v>
       </c>
       <c r="V4" t="n">
-        <v>610.5691800683666</v>
+        <v>233.7219182438893</v>
       </c>
       <c r="W4" t="n">
-        <v>610.5691800683666</v>
+        <v>233.7219182438893</v>
       </c>
       <c r="X4" t="n">
-        <v>610.5691800683666</v>
+        <v>162.9151405556987</v>
       </c>
       <c r="Y4" t="n">
-        <v>610.5691800683666</v>
+        <v>162.9151405556987</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>688.5445707482418</v>
+        <v>688.5445707482422</v>
       </c>
       <c r="C5" t="n">
-        <v>688.5445707482418</v>
+        <v>688.5445707482422</v>
       </c>
       <c r="D5" t="n">
-        <v>688.5445707482418</v>
+        <v>688.5445707482422</v>
       </c>
       <c r="E5" t="n">
-        <v>688.5445707482418</v>
+        <v>688.5445707482422</v>
       </c>
       <c r="F5" t="n">
-        <v>540.2705407074654</v>
+        <v>456.8826549926146</v>
       </c>
       <c r="G5" t="n">
-        <v>124.1244640184027</v>
+        <v>40.73657830355186</v>
       </c>
       <c r="H5" t="n">
-        <v>124.1244640184027</v>
+        <v>40.73657830355186</v>
       </c>
       <c r="I5" t="n">
-        <v>40.73657830355184</v>
+        <v>40.73657830355186</v>
       </c>
       <c r="J5" t="n">
-        <v>140.3063411473629</v>
+        <v>140.3063411473624</v>
       </c>
       <c r="K5" t="n">
-        <v>340.2741230978825</v>
+        <v>340.2741230978821</v>
       </c>
       <c r="L5" t="n">
-        <v>625.2536008262787</v>
+        <v>625.2536008262782</v>
       </c>
       <c r="M5" t="n">
         <v>974.0176169100278</v>
@@ -4582,37 +4582,37 @@
         <v>1333.038807774398</v>
       </c>
       <c r="O5" t="n">
-        <v>1658.717076417798</v>
+        <v>1658.717076417799</v>
       </c>
       <c r="P5" t="n">
-        <v>1902.174943012942</v>
+        <v>1902.174943012943</v>
       </c>
       <c r="Q5" t="n">
-        <v>2036.828915177592</v>
+        <v>2036.828915177593</v>
       </c>
       <c r="R5" t="n">
-        <v>2036.828915177592</v>
+        <v>2036.828915177593</v>
       </c>
       <c r="S5" t="n">
-        <v>2036.828915177592</v>
+        <v>2036.828915177593</v>
       </c>
       <c r="T5" t="n">
-        <v>2036.828915177592</v>
+        <v>2036.828915177593</v>
       </c>
       <c r="U5" t="n">
-        <v>1783.212548328704</v>
+        <v>1783.212548328705</v>
       </c>
       <c r="V5" t="n">
-        <v>1452.149660985133</v>
+        <v>1452.149660985134</v>
       </c>
       <c r="W5" t="n">
-        <v>1452.149660985133</v>
+        <v>1452.149660985134</v>
       </c>
       <c r="X5" t="n">
-        <v>1078.683902724053</v>
+        <v>1078.683902724054</v>
       </c>
       <c r="Y5" t="n">
-        <v>688.5445707482418</v>
+        <v>688.5445707482422</v>
       </c>
     </row>
     <row r="6">
@@ -4643,19 +4643,19 @@
         <v>69.29373976906726</v>
       </c>
       <c r="I6" t="n">
-        <v>40.73657830355184</v>
+        <v>40.73657830355186</v>
       </c>
       <c r="J6" t="n">
         <v>206.0519249621747</v>
       </c>
       <c r="K6" t="n">
-        <v>376.9432986792718</v>
+        <v>376.9432986792723</v>
       </c>
       <c r="L6" t="n">
-        <v>621.396794060896</v>
+        <v>621.3967940608966</v>
       </c>
       <c r="M6" t="n">
-        <v>926.0193612170317</v>
+        <v>926.0193612170324</v>
       </c>
       <c r="N6" t="n">
         <v>1253.1130262088</v>
@@ -4664,22 +4664,22 @@
         <v>1530.120031543142</v>
       </c>
       <c r="P6" t="n">
-        <v>1733.109508449652</v>
+        <v>1733.109508449653</v>
       </c>
       <c r="Q6" t="n">
-        <v>2026.859916513716</v>
+        <v>2026.859916513717</v>
       </c>
       <c r="R6" t="n">
-        <v>2036.828915177592</v>
+        <v>2036.828915177593</v>
       </c>
       <c r="S6" t="n">
-        <v>2036.828915177592</v>
+        <v>1896.721042043992</v>
       </c>
       <c r="T6" t="n">
-        <v>2036.828915177592</v>
+        <v>1896.721042043992</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.657117159122</v>
+        <v>1769.505008927379</v>
       </c>
       <c r="V6" t="n">
         <v>1769.505008927379</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1085.084305970987</v>
+        <v>209.6727612314588</v>
       </c>
       <c r="C7" t="n">
-        <v>916.14812304308</v>
+        <v>40.73657830355186</v>
       </c>
       <c r="D7" t="n">
-        <v>766.0314836307442</v>
+        <v>40.73657830355186</v>
       </c>
       <c r="E7" t="n">
-        <v>618.1183900483511</v>
+        <v>40.73657830355186</v>
       </c>
       <c r="F7" t="n">
-        <v>471.2284425504407</v>
+        <v>40.73657830355186</v>
       </c>
       <c r="G7" t="n">
-        <v>303.0440140228942</v>
+        <v>40.73657830355186</v>
       </c>
       <c r="H7" t="n">
-        <v>152.5450374187913</v>
+        <v>40.73657830355186</v>
       </c>
       <c r="I7" t="n">
-        <v>40.73657830355184</v>
+        <v>40.73657830355186</v>
       </c>
       <c r="J7" t="n">
-        <v>52.48822935536987</v>
+        <v>52.48822935536991</v>
       </c>
       <c r="K7" t="n">
-        <v>201.6366387116524</v>
+        <v>201.6366387116525</v>
       </c>
       <c r="L7" t="n">
-        <v>448.0216872905648</v>
+        <v>448.021687290565</v>
       </c>
       <c r="M7" t="n">
-        <v>718.189298378604</v>
+        <v>718.1892983786042</v>
       </c>
       <c r="N7" t="n">
-        <v>987.3675439511248</v>
+        <v>987.3675439511253</v>
       </c>
       <c r="O7" t="n">
-        <v>1219.980925984398</v>
+        <v>1219.980925984399</v>
       </c>
       <c r="P7" t="n">
-        <v>1395.50117728849</v>
+        <v>1395.501177288491</v>
       </c>
       <c r="Q7" t="n">
-        <v>1433.587221206155</v>
+        <v>1433.587221206156</v>
       </c>
       <c r="R7" t="n">
-        <v>1433.587221206155</v>
+        <v>1433.587221206156</v>
       </c>
       <c r="S7" t="n">
-        <v>1433.587221206155</v>
+        <v>1433.587221206156</v>
       </c>
       <c r="T7" t="n">
-        <v>1433.587221206155</v>
+        <v>1433.587221206156</v>
       </c>
       <c r="U7" t="n">
-        <v>1433.587221206155</v>
+        <v>1384.205014346094</v>
       </c>
       <c r="V7" t="n">
-        <v>1433.587221206155</v>
+        <v>1129.520526140207</v>
       </c>
       <c r="W7" t="n">
-        <v>1433.587221206155</v>
+        <v>840.1033561032459</v>
       </c>
       <c r="X7" t="n">
-        <v>1433.587221206155</v>
+        <v>612.1138052052286</v>
       </c>
       <c r="Y7" t="n">
-        <v>1266.732770801226</v>
+        <v>391.3212260616984</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.739488336033</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.776971395622</v>
+        <v>1275.288014512647</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.511272788871</v>
+        <v>917.0223159058969</v>
       </c>
       <c r="E8" t="n">
-        <v>1062.723020190627</v>
+        <v>531.2340633076526</v>
       </c>
       <c r="F8" t="n">
-        <v>651.7371154010195</v>
+        <v>120.248158518045</v>
       </c>
       <c r="G8" t="n">
-        <v>236.0323651253084</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
         <v>51.24678656800311</v>
@@ -4804,13 +4804,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>168.0008189145204</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380228</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694945</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828715</v>
@@ -4922,10 +4922,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1269.331624317611</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1269.331624317611</v>
+        <v>1390.852773061637</v>
       </c>
       <c r="V10" t="n">
-        <v>1269.331624317611</v>
+        <v>1136.16828485575</v>
       </c>
       <c r="W10" t="n">
-        <v>1269.331624317611</v>
+        <v>846.7511148187889</v>
       </c>
       <c r="X10" t="n">
-        <v>1269.331624317611</v>
+        <v>846.7511148187889</v>
       </c>
       <c r="Y10" t="n">
-        <v>1269.331624317611</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1904.487375535338</v>
+        <v>1561.900772669912</v>
       </c>
       <c r="C11" t="n">
-        <v>1535.524858594926</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D11" t="n">
-        <v>1177.259159988176</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>791.4709073899314</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218343</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410103</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.721789066532</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W11" t="n">
-        <v>2277.953133796418</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X11" t="n">
-        <v>1904.487375535338</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y11" t="n">
-        <v>1904.487375535338</v>
+        <v>1561.900772669912</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
@@ -5120,46 +5120,46 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C13" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D13" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E13" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F13" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218343</v>
@@ -5235,16 +5235,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1134.908724368016</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>845.4915543310558</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X13" t="n">
-        <v>617.5020034330385</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y13" t="n">
-        <v>562.0806046698464</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1619.798686923957</v>
+        <v>1672.191441142817</v>
       </c>
       <c r="C14" t="n">
-        <v>1250.836169983545</v>
+        <v>1303.228924202405</v>
       </c>
       <c r="D14" t="n">
-        <v>892.5704713767946</v>
+        <v>944.9632255956544</v>
       </c>
       <c r="E14" t="n">
         <v>892.5704713767946</v>
@@ -5269,19 +5269,19 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5296,34 +5296,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V14" t="n">
-        <v>2736.172432430963</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W14" t="n">
-        <v>2383.403777160848</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X14" t="n">
-        <v>2009.938018899768</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y14" t="n">
-        <v>1619.798686923957</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D15" t="n">
         <v>618.1564155387305</v>
@@ -5345,28 +5345,28 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
         <v>1685.951113992584</v>
@@ -5381,10 +5381,10 @@
         <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297192</v>
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>848.0708164780106</v>
+        <v>889.9473523424593</v>
       </c>
       <c r="C16" t="n">
-        <v>679.1346335501037</v>
+        <v>721.0111694145525</v>
       </c>
       <c r="D16" t="n">
-        <v>529.0179941377679</v>
+        <v>570.8945300022167</v>
       </c>
       <c r="E16" t="n">
-        <v>381.1049005553748</v>
+        <v>422.9814364198236</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2149530574645</v>
+        <v>276.0914889219132</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>108.3886522966322</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5463,25 +5463,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672848</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T16" t="n">
-        <v>1539.614727326137</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U16" t="n">
-        <v>1250.51186045178</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V16" t="n">
-        <v>1250.51186045178</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W16" t="n">
-        <v>1250.51186045178</v>
+        <v>1071.595817172699</v>
       </c>
       <c r="X16" t="n">
-        <v>1250.51186045178</v>
+        <v>1071.595817172699</v>
       </c>
       <c r="Y16" t="n">
-        <v>1029.71928130825</v>
+        <v>1071.595817172699</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1506.363819949361</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C17" t="n">
-        <v>1137.401303008949</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D17" t="n">
-        <v>1137.401303008949</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E17" t="n">
-        <v>751.613050410705</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F17" t="n">
-        <v>751.613050410705</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5536,7 +5536,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5545,22 +5545,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W17" t="n">
-        <v>2656.568750250374</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X17" t="n">
-        <v>2283.102991989294</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y17" t="n">
-        <v>1892.963660013483</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="18">
@@ -5585,16 +5585,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>550.0410834832817</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C19" t="n">
-        <v>381.1049005553748</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D19" t="n">
-        <v>381.1049005553748</v>
+        <v>81.7387539137581</v>
       </c>
       <c r="E19" t="n">
-        <v>381.1049005553748</v>
+        <v>81.7387539137581</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574645</v>
+        <v>81.7387539137581</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5715,10 +5715,10 @@
         <v>680.6375233676413</v>
       </c>
       <c r="X19" t="n">
-        <v>680.6375233676413</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y19" t="n">
-        <v>680.6375233676413</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1311.909787855438</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C20" t="n">
-        <v>942.9472709150266</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="D20" t="n">
-        <v>863.2862738200351</v>
+        <v>194.5422403324639</v>
       </c>
       <c r="E20" t="n">
-        <v>477.498021221791</v>
+        <v>194.5422403324639</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5782,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X20" t="n">
         <v>1698.50962791956</v>
       </c>
       <c r="Y20" t="n">
-        <v>1698.50962791956</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="21">
@@ -5822,16 +5822,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>532.4548862703364</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C22" t="n">
         <v>363.5187033424295</v>
@@ -5898,16 +5898,16 @@
         <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>1615.697475415547</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U22" t="n">
-        <v>1326.59460854119</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V22" t="n">
-        <v>1071.910120335303</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W22" t="n">
-        <v>782.4929502983425</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X22" t="n">
-        <v>554.5033994003252</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y22" t="n">
-        <v>554.5033994003252</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2005.586939522201</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>764.3411331473105</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>378.5528805490663</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>378.5528805490663</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
@@ -6001,40 +6001,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3121.960685029207</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3121.960685029207</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V23" t="n">
-        <v>3121.960685029207</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W23" t="n">
-        <v>2769.192029759092</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X23" t="n">
-        <v>2395.726271498012</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y23" t="n">
-        <v>2005.586939522201</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="24">
@@ -6059,22 +6059,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C25" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D25" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E25" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1837.464090846021</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T25" t="n">
-        <v>1837.464090846021</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U25" t="n">
-        <v>1548.361223971664</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V25" t="n">
-        <v>1293.676735765777</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W25" t="n">
-        <v>1004.259565728817</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X25" t="n">
-        <v>1004.259565728817</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y25" t="n">
-        <v>862.0164446829692</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1888.09808975843</v>
+        <v>1675.730933054507</v>
       </c>
       <c r="C26" t="n">
-        <v>1519.135572818019</v>
+        <v>1306.768416114095</v>
       </c>
       <c r="D26" t="n">
-        <v>1160.869874211268</v>
+        <v>948.5027175073449</v>
       </c>
       <c r="E26" t="n">
-        <v>775.0816216130238</v>
+        <v>562.7144649091006</v>
       </c>
       <c r="F26" t="n">
-        <v>364.0957168234162</v>
+        <v>562.7144649091006</v>
       </c>
       <c r="G26" t="n">
         <v>364.0957168234162</v>
@@ -6253,25 +6253,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U26" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V26" t="n">
-        <v>3215.315153136266</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W26" t="n">
-        <v>3038.303020059443</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X26" t="n">
-        <v>2664.837261798364</v>
+        <v>2062.330773118629</v>
       </c>
       <c r="Y26" t="n">
-        <v>2274.697929822552</v>
+        <v>2062.330773118629</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>530.2513404403938</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C28" t="n">
-        <v>361.3151575124869</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="D28" t="n">
-        <v>361.3151575124869</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="E28" t="n">
-        <v>213.4020639300938</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218343</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218343</v>
+        <v>74.18997604374653</v>
       </c>
       <c r="H28" t="n">
         <v>66.51211643218343</v>
@@ -6414,22 +6414,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>1773.093881285855</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U28" t="n">
-        <v>1483.991014411499</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V28" t="n">
-        <v>1229.306526205612</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W28" t="n">
-        <v>939.8893561686509</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X28" t="n">
-        <v>711.8998052706336</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y28" t="n">
-        <v>711.8998052706336</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1822.632236038043</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C29" t="n">
-        <v>1453.669719097631</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D29" t="n">
-        <v>1095.404020490881</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G29" t="n">
         <v>66.51211643218342</v>
@@ -6463,10 +6463,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6493,22 +6493,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>3037.951122217774</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.605821609171</v>
+        <v>2706.888234874203</v>
       </c>
       <c r="W29" t="n">
-        <v>2972.837166339056</v>
+        <v>2354.119579604089</v>
       </c>
       <c r="X29" t="n">
-        <v>2599.371408077976</v>
+        <v>1980.653821343009</v>
       </c>
       <c r="Y29" t="n">
-        <v>2209.232076102165</v>
+        <v>1590.514489367197</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>753.0765981364621</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C31" t="n">
-        <v>584.1404152085552</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D31" t="n">
-        <v>584.1404152085552</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E31" t="n">
-        <v>436.2273216261621</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F31" t="n">
-        <v>289.3373741282517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>121.6345375029706</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
         <v>66.51211643218342</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U31" t="n">
-        <v>1638.191681214136</v>
+        <v>1378.448727056821</v>
       </c>
       <c r="V31" t="n">
-        <v>1383.507193008249</v>
+        <v>1123.764238850934</v>
       </c>
       <c r="W31" t="n">
-        <v>1383.507193008249</v>
+        <v>834.3470688139736</v>
       </c>
       <c r="X31" t="n">
-        <v>1155.517642110232</v>
+        <v>606.3575179159562</v>
       </c>
       <c r="Y31" t="n">
-        <v>934.7250629667018</v>
+        <v>385.5649387724261</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1734.047335491682</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C32" t="n">
-        <v>1365.084818551271</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D32" t="n">
-        <v>1006.81911994452</v>
+        <v>764.341133147311</v>
       </c>
       <c r="E32" t="n">
-        <v>621.030867346276</v>
+        <v>764.341133147311</v>
       </c>
       <c r="F32" t="n">
-        <v>621.030867346276</v>
+        <v>353.3552283577034</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>353.3552283577034</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218343</v>
@@ -6703,19 +6703,19 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
         <v>3018.302393296687</v>
@@ -6727,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>2884.252265792696</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W32" t="n">
-        <v>2884.252265792696</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X32" t="n">
-        <v>2510.786507531616</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y32" t="n">
-        <v>2120.647175555804</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>674.4145879000976</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C34" t="n">
-        <v>505.4784049721907</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D34" t="n">
-        <v>355.3617655598549</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E34" t="n">
-        <v>355.3617655598549</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F34" t="n">
-        <v>208.4718180619446</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G34" t="n">
-        <v>208.4718180619446</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
         <v>66.51211643218343</v>
@@ -6888,22 +6888,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1735.608663915319</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1446.505797040963</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V34" t="n">
-        <v>1191.821308835076</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W34" t="n">
-        <v>902.4041387981149</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X34" t="n">
-        <v>674.4145879000976</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y34" t="n">
-        <v>674.4145879000976</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2065.110222835253</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C35" t="n">
-        <v>1696.147705894841</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D35" t="n">
-        <v>1337.882007288091</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E35" t="n">
-        <v>952.0937546898465</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F35" t="n">
-        <v>541.107849900239</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G35" t="n">
-        <v>126.0353997452355</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V35" t="n">
-        <v>3215.315153136266</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W35" t="n">
-        <v>3215.315153136266</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X35" t="n">
-        <v>2841.849394875187</v>
+        <v>2367.546699278356</v>
       </c>
       <c r="Y35" t="n">
-        <v>2451.710062899375</v>
+        <v>2303.982127379311</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>231.8553933260938</v>
+        <v>561.0764108006842</v>
       </c>
       <c r="C37" t="n">
-        <v>231.8553933260938</v>
+        <v>392.1402278727774</v>
       </c>
       <c r="D37" t="n">
-        <v>231.8553933260938</v>
+        <v>242.0235884604416</v>
       </c>
       <c r="E37" t="n">
-        <v>83.94229974370072</v>
+        <v>94.11049487804851</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218343</v>
+        <v>94.11049487804851</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>94.11049487804851</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7125,22 +7125,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1513.842048484845</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U37" t="n">
-        <v>1224.739181610489</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V37" t="n">
-        <v>970.0546934046018</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W37" t="n">
-        <v>680.6375233676413</v>
+        <v>1191.507005672471</v>
       </c>
       <c r="X37" t="n">
-        <v>452.6479724696239</v>
+        <v>963.5174547744541</v>
       </c>
       <c r="Y37" t="n">
-        <v>231.8553933260938</v>
+        <v>742.724875630924</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1767.87852028569</v>
+        <v>1611.504630229388</v>
       </c>
       <c r="C38" t="n">
-        <v>1398.916003345278</v>
+        <v>1242.542113288977</v>
       </c>
       <c r="D38" t="n">
-        <v>1278.358723975039</v>
+        <v>884.2764146822262</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V38" t="n">
-        <v>2884.252265792696</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W38" t="n">
-        <v>2531.483610522581</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X38" t="n">
-        <v>2158.017852261502</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="Y38" t="n">
-        <v>1767.87852028569</v>
+        <v>1998.10447029351</v>
       </c>
     </row>
     <row r="39">
@@ -7244,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>994.2880032601528</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C40" t="n">
-        <v>825.3518203322459</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D40" t="n">
-        <v>675.2351809199101</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E40" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7362,22 +7362,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U40" t="n">
-        <v>1705.527932658019</v>
+        <v>1874.689976010252</v>
       </c>
       <c r="V40" t="n">
-        <v>1705.527932658019</v>
+        <v>1620.005487804365</v>
       </c>
       <c r="W40" t="n">
-        <v>1624.71859813194</v>
+        <v>1330.588317767405</v>
       </c>
       <c r="X40" t="n">
-        <v>1396.729047233923</v>
+        <v>1102.598766869387</v>
       </c>
       <c r="Y40" t="n">
-        <v>1175.936468090393</v>
+        <v>881.8061877258572</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1808.800296392465</v>
+        <v>2139.863183736035</v>
       </c>
       <c r="C41" t="n">
-        <v>1439.837779452053</v>
+        <v>1770.900666795623</v>
       </c>
       <c r="D41" t="n">
-        <v>1081.572080845303</v>
+        <v>1412.634968188873</v>
       </c>
       <c r="E41" t="n">
-        <v>695.7838282470586</v>
+        <v>1026.846715590628</v>
       </c>
       <c r="F41" t="n">
-        <v>695.7838282470586</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7441,22 +7441,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U41" t="n">
-        <v>2866.09759726723</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V41" t="n">
-        <v>2535.034709923659</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W41" t="n">
-        <v>2182.266054653545</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X41" t="n">
-        <v>1808.800296392465</v>
+        <v>2139.863183736035</v>
       </c>
       <c r="Y41" t="n">
-        <v>1808.800296392465</v>
+        <v>2139.863183736035</v>
       </c>
     </row>
     <row r="42">
@@ -7481,16 +7481,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>498.9890585374015</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C43" t="n">
-        <v>330.0528756094947</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D43" t="n">
-        <v>234.2149530574645</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7602,19 +7602,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1224.739181610489</v>
+        <v>1225.33624636555</v>
       </c>
       <c r="V43" t="n">
-        <v>970.0546934046018</v>
+        <v>1225.33624636555</v>
       </c>
       <c r="W43" t="n">
-        <v>680.6375233676413</v>
+        <v>935.919076328589</v>
       </c>
       <c r="X43" t="n">
-        <v>680.6375233676413</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y43" t="n">
-        <v>680.6375233676413</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2303.170539913434</v>
+        <v>1865.035106955552</v>
       </c>
       <c r="C44" t="n">
-        <v>1934.208022973022</v>
+        <v>1496.072590015141</v>
       </c>
       <c r="D44" t="n">
-        <v>1575.942324366272</v>
+        <v>1137.80689140839</v>
       </c>
       <c r="E44" t="n">
-        <v>1190.154071768027</v>
+        <v>752.0186388101461</v>
       </c>
       <c r="F44" t="n">
-        <v>779.1681669784198</v>
+        <v>752.0186388101461</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3007.699185518085</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2676.636298174514</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W44" t="n">
-        <v>2676.636298174514</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X44" t="n">
-        <v>2303.170539913434</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="Y44" t="n">
-        <v>2303.170539913434</v>
+        <v>2251.634947019674</v>
       </c>
     </row>
     <row r="45">
@@ -7718,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>529.0179941377679</v>
+        <v>332.773976541745</v>
       </c>
       <c r="C46" t="n">
-        <v>529.0179941377679</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D46" t="n">
-        <v>529.0179941377679</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E46" t="n">
-        <v>381.1049005553748</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574644</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7827,31 +7827,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1705.527932658018</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U46" t="n">
-        <v>1416.425065783662</v>
+        <v>1252.621741450493</v>
       </c>
       <c r="V46" t="n">
-        <v>1161.740577577775</v>
+        <v>1252.621741450493</v>
       </c>
       <c r="W46" t="n">
-        <v>872.3234075408143</v>
+        <v>963.2045714135322</v>
       </c>
       <c r="X46" t="n">
-        <v>644.3338566427969</v>
+        <v>735.2150205155149</v>
       </c>
       <c r="Y46" t="n">
-        <v>529.0179941377679</v>
+        <v>514.4224413719847</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457084</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
-        <v>145.8220995101052</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777605</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>7.153582300174151</v>
+        <v>7.153582300174094</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>23.77864319610518</v>
+        <v>23.77864319610555</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>54.95314511566572</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>84.56626356308323</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>394.6963327343149</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>271.1000969860418</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>163.7174685765346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>330.0615433955905</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>57.31893511150417</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>103.2972444085165</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>114.4471047229255</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>255.1805474109841</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>68.85649517496353</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,10 +23788,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.5415046964213</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>150.9514371522693</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,13 +23974,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>275.8186544966414</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>321.7031528533597</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -23989,7 +23989,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>158.0039521832484</v>
+        <v>120.4096317666679</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>143.5782989506654</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>111.4970467136309</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>77.76396351670567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>214.2891650486259</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>173.9989569713583</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>137.1539338988733</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24654,7 +24654,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>66.8902891415577</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>181.1251564493164</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24733,13 +24733,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>170.1349897010394</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>90.18381805424144</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>21.55565338574718</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>156.5559266358223</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>52.21001335398162</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>4.214910300857269</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>183.3889571555939</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>235.679713907399</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>323.3090124759991</v>
       </c>
     </row>
     <row r="36">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>128.1651665445291</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>117.4326202529143</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>235.3313350441461</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>315.4044547066773</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25602,16 +25602,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>234.1333118481547</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>206.5217571557727</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>203.2512123885507</v>
       </c>
       <c r="G41" t="n">
-        <v>82.55049534404742</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>53.73592969170247</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.5910941075102301</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>68.45496265951687</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>45.45536401690325</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>116.5358869116516</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>104.4219494721161</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>797712.0948633888</v>
+        <v>797712.0948633887</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>797712.0948633888</v>
+        <v>797712.0948633887</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>797712.0948633886</v>
+        <v>797712.0948633887</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>797712.0948633887</v>
+        <v>797712.0948633888</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>797712.0948633887</v>
+        <v>797712.0948633889</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>797712.0948633887</v>
+        <v>797712.0948633886</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>797712.0948633887</v>
+        <v>797712.0948633886</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>797712.0948633888</v>
+        <v>797712.0948633886</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>797712.0948633887</v>
+        <v>797712.0948633886</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185696</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
         <v>409196.5187651048</v>
       </c>
       <c r="F2" t="n">
+        <v>409196.5187651048</v>
+      </c>
+      <c r="G2" t="n">
         <v>409196.5187651049</v>
       </c>
-      <c r="G2" t="n">
-        <v>409196.518765105</v>
-      </c>
       <c r="H2" t="n">
-        <v>409196.5187651046</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="I2" t="n">
         <v>409196.5187651048</v>
       </c>
       <c r="J2" t="n">
+        <v>409196.5187651049</v>
+      </c>
+      <c r="K2" t="n">
+        <v>409196.5187651049</v>
+      </c>
+      <c r="L2" t="n">
         <v>409196.5187651048</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>409196.5187651049</v>
+      </c>
+      <c r="N2" t="n">
+        <v>409196.5187651049</v>
+      </c>
+      <c r="O2" t="n">
         <v>409196.5187651048</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>409196.5187651049</v>
-      </c>
-      <c r="M2" t="n">
-        <v>409196.5187651048</v>
-      </c>
-      <c r="N2" t="n">
-        <v>409196.5187651048</v>
-      </c>
-      <c r="O2" t="n">
-        <v>409196.5187651049</v>
-      </c>
-      <c r="P2" t="n">
-        <v>409196.518765105</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208451</v>
       </c>
       <c r="C3" t="n">
-        <v>356083.2629995311</v>
+        <v>356083.2629995318</v>
       </c>
       <c r="D3" t="n">
-        <v>133886.7361862366</v>
+        <v>133886.7361862361</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>182072.9798171908</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854461</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>82790.56074253515</v>
+        <v>82790.56074253525</v>
       </c>
       <c r="L3" t="n">
-        <v>33250.48899822798</v>
+        <v>33250.48899822793</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341491</v>
+        <v>47552.26579341485</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278169.1766632064</v>
+        <v>278169.1766632065</v>
       </c>
       <c r="C4" t="n">
-        <v>183499.9814421235</v>
+        <v>183499.9814421234</v>
       </c>
       <c r="D4" t="n">
-        <v>146359.3674130576</v>
+        <v>146359.3674130577</v>
       </c>
       <c r="E4" t="n">
         <v>14040.01085717763</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161355</v>
       </c>
       <c r="C5" t="n">
-        <v>82580.74337893915</v>
+        <v>82580.74337893917</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26511,7 +26511,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-433886.8176770954</v>
+        <v>-433886.8176770952</v>
       </c>
       <c r="C6" t="n">
-        <v>-129538.9259020241</v>
+        <v>-129538.9259020249</v>
       </c>
       <c r="D6" t="n">
-        <v>119441.1858794311</v>
+        <v>119441.1858794316</v>
       </c>
       <c r="E6" t="n">
-        <v>135300.9982312822</v>
+        <v>138429.568599537</v>
       </c>
       <c r="F6" t="n">
-        <v>317373.9780484727</v>
+        <v>320502.5484167278</v>
       </c>
       <c r="G6" t="n">
-        <v>317373.9780484732</v>
+        <v>320502.5484167279</v>
       </c>
       <c r="H6" t="n">
-        <v>317373.9780484727</v>
+        <v>320502.5484167279</v>
       </c>
       <c r="I6" t="n">
-        <v>317373.9780484728</v>
+        <v>320502.5484167278</v>
       </c>
       <c r="J6" t="n">
-        <v>268309.0333199282</v>
+        <v>271437.6036881833</v>
       </c>
       <c r="K6" t="n">
-        <v>234583.4173059376</v>
+        <v>237711.9876741926</v>
       </c>
       <c r="L6" t="n">
-        <v>284123.489050245</v>
+        <v>287252.0594184999</v>
       </c>
       <c r="M6" t="n">
-        <v>269821.7122550579</v>
+        <v>272950.282623313</v>
       </c>
       <c r="N6" t="n">
-        <v>317373.9780484728</v>
+        <v>320502.5484167279</v>
       </c>
       <c r="O6" t="n">
-        <v>317373.9780484729</v>
+        <v>320502.5484167278</v>
       </c>
       <c r="P6" t="n">
-        <v>317373.978048473</v>
+        <v>320502.5484167279</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>825.38274624953</v>
+        <v>825.3827462495302</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
-        <v>509.2072287943981</v>
+        <v>509.2072287943982</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26801,16 +26801,16 @@
         <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022929</v>
@@ -26822,16 +26822,16 @@
         <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>276.9128053366254</v>
+        <v>276.912805336626</v>
       </c>
       <c r="D3" t="n">
-        <v>108.6821458680093</v>
+        <v>108.6821458680089</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
-        <v>321.6816416280781</v>
+        <v>321.6816416280785</v>
       </c>
       <c r="D4" t="n">
-        <v>131.3776033056407</v>
+        <v>131.3776033056405</v>
       </c>
       <c r="E4" t="n">
         <v>190.816623302254</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>321.6816416280779</v>
+        <v>321.6816416280783</v>
       </c>
       <c r="L4" t="n">
-        <v>131.377603305641</v>
+        <v>131.3776033056408</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
-        <v>321.6816416280781</v>
+        <v>321.6816416280785</v>
       </c>
       <c r="L4" t="n">
-        <v>131.3776033056407</v>
+        <v>131.3776033056405</v>
       </c>
       <c r="M4" t="n">
         <v>190.816623302254</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>321.2850301123603</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753915</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>279.7820101892872</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988683</v>
+        <v>25.91829388988706</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871061</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>88.56296819369547</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>127.7124803211316</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27557,10 +27557,10 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917651</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27596,13 +27596,13 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>113.9998064128839</v>
+        <v>64.61205615750828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>155.6109454777285</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>260.0847560013429</v>
+        <v>177.5307491436401</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>305.4930893518355</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>82.5540068577023</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.4083737866025</v>
+        <v>133.4083737866024</v>
       </c>
       <c r="T5" t="n">
         <v>208.5707722909361</v>
@@ -27745,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>138.7067944022646</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>193.0088160174318</v>
       </c>
       <c r="U6" t="n">
-        <v>193.974502597465</v>
+        <v>99.88070985030367</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5025842422711</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.9939868380619</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>110.690374524087</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,19 +27830,19 @@
         <v>221.5860830227523</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2378441683352</v>
+        <v>237.3494593768737</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.3987474512154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>343.2363445424124</v>
       </c>
       <c r="H8" t="n">
-        <v>118.0808297906732</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>153.5253779792051</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>43.08974057846876</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.318121592962932</v>
+        <v>3.318121592962933</v>
       </c>
       <c r="H5" t="n">
-        <v>33.98171276393164</v>
+        <v>33.98171276393165</v>
       </c>
       <c r="I5" t="n">
         <v>127.9218827127036</v>
       </c>
       <c r="J5" t="n">
-        <v>281.6214225507379</v>
+        <v>281.621422550738</v>
       </c>
       <c r="K5" t="n">
-        <v>422.0775095808589</v>
+        <v>422.077509580859</v>
       </c>
       <c r="L5" t="n">
-        <v>523.6244732814984</v>
+        <v>523.6244732814985</v>
       </c>
       <c r="M5" t="n">
-        <v>582.6331181603529</v>
+        <v>582.633118160353</v>
       </c>
       <c r="N5" t="n">
-        <v>592.0607311363589</v>
+        <v>592.060731136359</v>
       </c>
       <c r="O5" t="n">
-        <v>559.0661595463337</v>
+        <v>559.0661595463338</v>
       </c>
       <c r="P5" t="n">
-        <v>477.1500327200612</v>
+        <v>477.1500327200613</v>
       </c>
       <c r="Q5" t="n">
-        <v>358.3198031720761</v>
+        <v>358.3198031720762</v>
       </c>
       <c r="R5" t="n">
         <v>208.431955513958</v>
       </c>
       <c r="S5" t="n">
-        <v>75.61169579964289</v>
+        <v>75.61169579964292</v>
       </c>
       <c r="T5" t="n">
-        <v>14.52507727319524</v>
+        <v>14.52507727319525</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2654497274370345</v>
+        <v>0.2654497274370346</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.775351567404649</v>
+        <v>1.77535156740465</v>
       </c>
       <c r="H6" t="n">
         <v>17.14615855888175</v>
       </c>
       <c r="I6" t="n">
-        <v>61.12504300055483</v>
+        <v>61.12504300055484</v>
       </c>
       <c r="J6" t="n">
         <v>167.7317899713314</v>
       </c>
       <c r="K6" t="n">
-        <v>286.6803449874429</v>
+        <v>286.680344987443</v>
       </c>
       <c r="L6" t="n">
         <v>385.4771023875754</v>
       </c>
       <c r="M6" t="n">
-        <v>449.8335967059938</v>
+        <v>449.8335967059939</v>
       </c>
       <c r="N6" t="n">
-        <v>461.7393534891593</v>
+        <v>461.7393534891594</v>
       </c>
       <c r="O6" t="n">
-        <v>422.4013003377194</v>
+        <v>422.4013003377195</v>
       </c>
       <c r="P6" t="n">
-        <v>339.0142830774721</v>
+        <v>339.0142830774722</v>
       </c>
       <c r="Q6" t="n">
-        <v>226.6220702532672</v>
+        <v>226.6220702532673</v>
       </c>
       <c r="R6" t="n">
         <v>110.2275297727203</v>
       </c>
       <c r="S6" t="n">
-        <v>32.97637670157318</v>
+        <v>32.97637670157319</v>
       </c>
       <c r="T6" t="n">
-        <v>7.15591267738979</v>
+        <v>7.155912677389792</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1167994452239901</v>
+        <v>0.1167994452239902</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>13.23318566937772</v>
       </c>
       <c r="I7" t="n">
-        <v>44.76010040317124</v>
+        <v>44.76010040317125</v>
       </c>
       <c r="J7" t="n">
         <v>105.2295347144688</v>
@@ -31454,31 +31454,31 @@
         <v>221.2837611830298</v>
       </c>
       <c r="M7" t="n">
-        <v>233.3126998947646</v>
+        <v>233.3126998947647</v>
       </c>
       <c r="N7" t="n">
         <v>227.7650453707926</v>
       </c>
       <c r="O7" t="n">
-        <v>210.3778842407819</v>
+        <v>210.377884240782</v>
       </c>
       <c r="P7" t="n">
-        <v>180.0146238705531</v>
+        <v>180.0146238705532</v>
       </c>
       <c r="Q7" t="n">
-        <v>124.632794683679</v>
+        <v>124.6327946836791</v>
       </c>
       <c r="R7" t="n">
-        <v>66.92365676967498</v>
+        <v>66.92365676967501</v>
       </c>
       <c r="S7" t="n">
-        <v>25.93866761574341</v>
+        <v>25.93866761574342</v>
       </c>
       <c r="T7" t="n">
-        <v>6.359506405529163</v>
+        <v>6.359506405529165</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08118518815569156</v>
+        <v>0.08118518815569158</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33903,7 +33903,7 @@
         <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N38" t="n">
         <v>781.7148990095023</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062401</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="O4" t="n">
-        <v>147.1624568175057</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>28.45844197068212</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>100.5755180240516</v>
+        <v>100.5755180240517</v>
       </c>
       <c r="K5" t="n">
-        <v>201.9876585358784</v>
+        <v>201.9876585358785</v>
       </c>
       <c r="L5" t="n">
-        <v>287.8580583115111</v>
+        <v>287.8580583115112</v>
       </c>
       <c r="M5" t="n">
-        <v>352.2868849330802</v>
+        <v>352.2868849330803</v>
       </c>
       <c r="N5" t="n">
-        <v>362.647667539768</v>
+        <v>362.6476675397681</v>
       </c>
       <c r="O5" t="n">
-        <v>328.9679481246469</v>
+        <v>328.967948124647</v>
       </c>
       <c r="P5" t="n">
-        <v>245.9170369647916</v>
+        <v>245.9170369647918</v>
       </c>
       <c r="Q5" t="n">
-        <v>136.0141132976266</v>
+        <v>136.0141132976267</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>166.9851986450736</v>
       </c>
       <c r="K6" t="n">
-        <v>172.6175492091891</v>
+        <v>172.6175492091895</v>
       </c>
       <c r="L6" t="n">
         <v>246.9227226077012</v>
       </c>
       <c r="M6" t="n">
-        <v>307.6995627839755</v>
+        <v>307.6995627839756</v>
       </c>
       <c r="N6" t="n">
-        <v>330.397641405826</v>
+        <v>330.3976414058261</v>
       </c>
       <c r="O6" t="n">
-        <v>279.8050558932749</v>
+        <v>279.805055893275</v>
       </c>
       <c r="P6" t="n">
         <v>205.0398756631419</v>
@@ -35038,7 +35038,7 @@
         <v>296.7175839030948</v>
       </c>
       <c r="R6" t="n">
-        <v>10.06969562007716</v>
+        <v>10.0696956200772</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.87035459779598</v>
+        <v>11.87035459779601</v>
       </c>
       <c r="K7" t="n">
-        <v>150.6549589457399</v>
+        <v>150.65495894574</v>
       </c>
       <c r="L7" t="n">
         <v>248.8737864433459</v>
       </c>
       <c r="M7" t="n">
-        <v>272.8965768566052</v>
+        <v>272.8965768566053</v>
       </c>
       <c r="N7" t="n">
-        <v>271.8972177500211</v>
+        <v>271.8972177500212</v>
       </c>
       <c r="O7" t="n">
         <v>234.9630121548216</v>
       </c>
       <c r="P7" t="n">
-        <v>177.2931831354466</v>
+        <v>177.2931831354467</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.47075143198464</v>
+        <v>38.47075143198467</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>117.9333660065831</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313199</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
@@ -37782,7 +37782,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865553999</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
